--- a/data/trans_orig/P78C4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80395104-C506-4C7F-A637-6649345A5409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BFD0129-7490-410C-8265-4922F49CC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA37442C-4E25-429F-8686-492796918D09}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E819253-CE4F-4647-AF75-62C0CD069FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -80,58 +80,58 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,28 +152,28 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -200,58 +200,58 @@
     <t>Sevilla</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B1C286-D30E-4212-9A20-050007397BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A662D9-818C-4256-93FC-39F7741DDC7D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2897</v>
+        <v>2828</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4338</v>
+        <v>4102</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>7235</v>
+        <v>6930</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>7811</v>
+        <v>8467</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1759</v>
+        <v>1633</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>9570</v>
+        <v>10100</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>10708</v>
+        <v>11295</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>6097</v>
+        <v>5735</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -1056,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>16805</v>
+        <v>17030</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>19</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>19</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2286</v>
+        <v>2198</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>42</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>19</v>
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>3143</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>44</v>
@@ -1330,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>3210</v>
+        <v>3083</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>4067</v>
+        <v>3885</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>32</v>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1205</v>
+        <v>1144</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>5232</v>
+        <v>4857</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>19</v>
@@ -1699,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>6437</v>
+        <v>6001</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>19</v>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1205</v>
+        <v>1144</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>32</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>5232</v>
+        <v>4857</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>32</v>
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>6437</v>
+        <v>6001</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>32</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>19</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>32</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>8187</v>
+        <v>7756</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>54</v>
@@ -1988,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>10252</v>
+        <v>9597</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>57</v>
@@ -2003,7 +2003,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>18439</v>
+        <v>17353</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>60</v>
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>10097</v>
+        <v>10665</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>63</v>
@@ -2039,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>2616</v>
+        <v>2435</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>66</v>
@@ -2054,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>12713</v>
+        <v>13100</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>69</v>
@@ -2075,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>18284</v>
+        <v>18421</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>32</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>12868</v>
+        <v>12032</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -2105,7 +2105,7 @@
         <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>31152</v>
+        <v>30453</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
